--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>xlsx_file</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Proponentes.xlsx</t>
   </si>
   <si>
+    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
+  </si>
+  <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>['Proponentes']</t>
+  </si>
+  <si>
+    <t>['Extração']</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -445,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -456,7 +462,18 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -43,13 +43,13 @@
     <t>['SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreção']</t>
   </si>
   <si>
-    <t>['Planilha1']</t>
-  </si>
-  <si>
-    <t>['Proponentes']</t>
-  </si>
-  <si>
-    <t>['Extração']</t>
+    <t>Emendas_resumo</t>
+  </si>
+  <si>
+    <t>Proponentes</t>
+  </si>
+  <si>
+    <t>Relatorio_SISGESAC</t>
   </si>
 </sst>
 </file>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -31,12 +31,12 @@
     <t>Emendas2021_resumo.xlsx</t>
   </si>
   <si>
+    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
+  </si>
+  <si>
     <t>Proponentes.xlsx</t>
   </si>
   <si>
-    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
-  </si>
-  <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
@@ -46,10 +46,10 @@
     <t>Emendas_resumo</t>
   </si>
   <si>
+    <t>Relatorio_SISGESAC</t>
+  </si>
+  <si>
     <t>Proponentes</t>
-  </si>
-  <si>
-    <t>Relatorio_SISGESAC</t>
   </si>
 </sst>
 </file>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -31,12 +31,12 @@
     <t>Emendas2021_resumo.xlsx</t>
   </si>
   <si>
+    <t>Proponentes.xlsx</t>
+  </si>
+  <si>
     <t>Relatorio_SISGESAC 1-02-2022.xls</t>
   </si>
   <si>
-    <t>Proponentes.xlsx</t>
-  </si>
-  <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
@@ -46,10 +46,10 @@
     <t>Emendas_resumo</t>
   </si>
   <si>
+    <t>Proponentes</t>
+  </si>
+  <si>
     <t>Relatorio_SISGESAC</t>
-  </si>
-  <si>
-    <t>Proponentes</t>
   </si>
 </sst>
 </file>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -25,31 +25,31 @@
     <t>Controle de Empenhos e NC 2022.xlsx</t>
   </si>
   <si>
+    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
+  </si>
+  <si>
+    <t>Emendas2021_resumo.xlsx</t>
+  </si>
+  <si>
+    <t>Proponentes.xlsx</t>
+  </si>
+  <si>
     <t>Controle de NC 2022.xlsx</t>
   </si>
   <si>
-    <t>Emendas2021_resumo.xlsx</t>
-  </si>
-  <si>
-    <t>Proponentes.xlsx</t>
-  </si>
-  <si>
-    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
-  </si>
-  <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
+    <t>Relatorio_SISGESAC</t>
+  </si>
+  <si>
+    <t>Emendas_resumo</t>
+  </si>
+  <si>
+    <t>Proponentes</t>
+  </si>
+  <si>
     <t>['SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreção']</t>
-  </si>
-  <si>
-    <t>Emendas_resumo</t>
-  </si>
-  <si>
-    <t>Proponentes</t>
-  </si>
-  <si>
-    <t>Relatorio_SISGESAC</t>
   </si>
 </sst>
 </file>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>xlsx_file</t>
   </si>
@@ -25,31 +25,43 @@
     <t>Controle de Empenhos e NC 2022.xlsx</t>
   </si>
   <si>
+    <t>Controle de NC 2022.xlsx</t>
+  </si>
+  <si>
+    <t>Emendas2021_resumo.xlsx</t>
+  </si>
+  <si>
+    <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
+  </si>
+  <si>
+    <t>Proponentes.xlsx</t>
+  </si>
+  <si>
     <t>Relatorio_SISGESAC 1-02-2022.xls</t>
   </si>
   <si>
-    <t>Emendas2021_resumo.xlsx</t>
-  </si>
-  <si>
-    <t>Proponentes.xlsx</t>
-  </si>
-  <si>
-    <t>Controle de NC 2022.xlsx</t>
+    <t>estados.xlsx</t>
   </si>
   <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
+    <t>['SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreção']</t>
+  </si>
+  <si>
+    <t>Emendas_resumo</t>
+  </si>
+  <si>
+    <t>['Adm. Direta - Discricionárias', 'Emendas Individuais', 'Emendas de Bancada', 'dinamica', 'base']</t>
+  </si>
+  <si>
+    <t>Proponentes</t>
+  </si>
+  <si>
     <t>Relatorio_SISGESAC</t>
   </si>
   <si>
-    <t>Emendas_resumo</t>
-  </si>
-  <si>
-    <t>Proponentes</t>
-  </si>
-  <si>
-    <t>['SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreção']</t>
+    <t>estados</t>
   </si>
 </sst>
 </file>
@@ -407,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,7 +485,29 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -25,43 +25,43 @@
     <t>Controle de Empenhos e NC 2022.xlsx</t>
   </si>
   <si>
+    <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
+  </si>
+  <si>
+    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
+  </si>
+  <si>
+    <t>Emendas2021_resumo.xlsx</t>
+  </si>
+  <si>
+    <t>estados.xlsx</t>
+  </si>
+  <si>
+    <t>Proponentes.xlsx</t>
+  </si>
+  <si>
     <t>Controle de NC 2022.xlsx</t>
   </si>
   <si>
-    <t>Emendas2021_resumo.xlsx</t>
-  </si>
-  <si>
-    <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
-  </si>
-  <si>
-    <t>Proponentes.xlsx</t>
-  </si>
-  <si>
-    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
-  </si>
-  <si>
-    <t>estados.xlsx</t>
-  </si>
-  <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
+    <t>['Adm. Direta - Discricionárias', 'Emendas Individuais', 'Emendas de Bancada', 'dinamica', 'base']</t>
+  </si>
+  <si>
+    <t>Relatorio_SISGESAC</t>
+  </si>
+  <si>
+    <t>Emendas_resumo</t>
+  </si>
+  <si>
+    <t>estados</t>
+  </si>
+  <si>
+    <t>Proponentes</t>
+  </si>
+  <si>
     <t>['SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreção']</t>
-  </si>
-  <si>
-    <t>Emendas_resumo</t>
-  </si>
-  <si>
-    <t>['Adm. Direta - Discricionárias', 'Emendas Individuais', 'Emendas de Bancada', 'dinamica', 'base']</t>
-  </si>
-  <si>
-    <t>Proponentes</t>
-  </si>
-  <si>
-    <t>Relatorio_SISGESAC</t>
-  </si>
-  <si>
-    <t>estados</t>
   </si>
 </sst>
 </file>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>xlsx_file</t>
   </si>
@@ -25,43 +25,49 @@
     <t>Controle de Empenhos e NC 2022.xlsx</t>
   </si>
   <si>
+    <t>Controle de NC 2022.xlsx</t>
+  </si>
+  <si>
+    <t>Emendas2021_resumo.xlsx</t>
+  </si>
+  <si>
     <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
   </si>
   <si>
+    <t>Proponente.xlsx</t>
+  </si>
+  <si>
+    <t>Proponentes.xlsx</t>
+  </si>
+  <si>
     <t>Relatorio_SISGESAC 1-02-2022.xls</t>
   </si>
   <si>
-    <t>Emendas2021_resumo.xlsx</t>
-  </si>
-  <si>
     <t>estados.xlsx</t>
   </si>
   <si>
-    <t>Proponentes.xlsx</t>
-  </si>
-  <si>
-    <t>Controle de NC 2022.xlsx</t>
-  </si>
-  <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
+    <t>['SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreção']</t>
+  </si>
+  <si>
+    <t>Emendas_resumo</t>
+  </si>
+  <si>
     <t>['Adm. Direta - Discricionárias', 'Emendas Individuais', 'Emendas de Bancada', 'dinamica', 'base']</t>
   </si>
   <si>
+    <t>['Sheet1']</t>
+  </si>
+  <si>
+    <t>Proponente</t>
+  </si>
+  <si>
     <t>Relatorio_SISGESAC</t>
   </si>
   <si>
-    <t>Emendas_resumo</t>
-  </si>
-  <si>
     <t>estados</t>
-  </si>
-  <si>
-    <t>Proponentes</t>
-  </si>
-  <si>
-    <t>['SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreção']</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -452,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -463,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -474,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -485,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -496,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -507,7 +513,18 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>xlsx_file</t>
   </si>
@@ -34,18 +34,15 @@
     <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
   </si>
   <si>
-    <t>Proponente.xlsx</t>
+    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
+  </si>
+  <si>
+    <t>estados.xlsx</t>
   </si>
   <si>
     <t>Proponentes.xlsx</t>
   </si>
   <si>
-    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
-  </si>
-  <si>
-    <t>estados.xlsx</t>
-  </si>
-  <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
@@ -58,16 +55,13 @@
     <t>['Adm. Direta - Discricionárias', 'Emendas Individuais', 'Emendas de Bancada', 'dinamica', 'base']</t>
   </si>
   <si>
-    <t>['Sheet1']</t>
-  </si>
-  <si>
-    <t>Proponente</t>
-  </si>
-  <si>
     <t>Relatorio_SISGESAC</t>
   </si>
   <si>
     <t>estados</t>
+  </si>
+  <si>
+    <t>Proponentes</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,18 +507,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Dictionary/xlsx/df_xlsx.xlsx
+++ b/Data_Dictionary/xlsx/df_xlsx.xlsx
@@ -25,43 +25,43 @@
     <t>Controle de Empenhos e NC 2022.xlsx</t>
   </si>
   <si>
+    <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
+  </si>
+  <si>
+    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
+  </si>
+  <si>
+    <t>Emendas2021_resumo.xlsx</t>
+  </si>
+  <si>
+    <t>estados.xlsx</t>
+  </si>
+  <si>
+    <t>Proponentes.xlsx</t>
+  </si>
+  <si>
     <t>Controle de NC 2022.xlsx</t>
   </si>
   <si>
-    <t>Emendas2021_resumo.xlsx</t>
-  </si>
-  <si>
-    <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
-  </si>
-  <si>
-    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
-  </si>
-  <si>
-    <t>estados.xlsx</t>
-  </si>
-  <si>
-    <t>Proponentes.xlsx</t>
-  </si>
-  <si>
     <t>['ControleGeral', 'SintéticoGeral', 'SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreçãoNC']</t>
   </si>
   <si>
+    <t>['Adm. Direta - Discricionárias', 'Emendas Individuais', 'Emendas de Bancada', 'dinamica', 'base']</t>
+  </si>
+  <si>
+    <t>Relatorio_SISGESAC</t>
+  </si>
+  <si>
+    <t>Emendas_resumo</t>
+  </si>
+  <si>
+    <t>estados</t>
+  </si>
+  <si>
+    <t>Proponentes</t>
+  </si>
+  <si>
     <t>['SintéticoNC', 'AnalíticoNC', 'ÍndiceCorreção']</t>
-  </si>
-  <si>
-    <t>Emendas_resumo</t>
-  </si>
-  <si>
-    <t>['Adm. Direta - Discricionárias', 'Emendas Individuais', 'Emendas de Bancada', 'dinamica', 'base']</t>
-  </si>
-  <si>
-    <t>Relatorio_SISGESAC</t>
-  </si>
-  <si>
-    <t>estados</t>
-  </si>
-  <si>
-    <t>Proponentes</t>
   </si>
 </sst>
 </file>
